--- a/biology/Botanique/Parc_de_Wolvendael/Parc_de_Wolvendael.xlsx
+++ b/biology/Botanique/Parc_de_Wolvendael/Parc_de_Wolvendael.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de Wolvendael (Wolvendael Park en néerlandais) est un parc bruxellois d’environ 18 hectares, situé dans la commune d’Uccle à Bruxelles, au sud du square des Héros et de l’avenue de Fré, et au nord du cimetière du Dieweg. il occupe le versant sud de l'ancienne vallée de l'Ukkelbeek (ou Ucclebeek).
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom «Wolvendael» est d'origine flamande, mais contrairement à ce que l'on pourrait croire à première vue, il n'a rien à voir avec le pluriel du mot «wolf», qui signifie «loup» en néerlandais. Il signifie «vallon (dael) au tournant (wolf)», sans doute à cause du cours sinueux de l'Ukkelbeek (ou Ucclebeek).
 </t>
@@ -543,7 +557,9 @@
           <t>Édifices et monuments</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Château. Il a été construit au XVIIIe siècle par la famille Vanderborght. Il a été la propriété de la famille Mosselman du Chenoy. Il abrite actuellement l'École d'art d'Uccle.
 Pavillon Louis XV. En 1909, un des propriétaires du parc, Léon Janssen, a fait démonter et reconstruire pierre par pierre dans le parc ce petit édifice du XVIIIe siècle provenant d'Amsterdam
@@ -578,7 +594,9 @@
           <t>Arbres remarquables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ci-dessous, les 22 arbres remarquables du parc répertoriés par la Commission des monuments et des sites :
 </t>
